--- a/metadata_templates/HP_OralHistory_Simple_metadata_template.xlsx
+++ b/metadata_templates/HP_OralHistory_Simple_metadata_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/mrbst20_pitt_edu/Documents/ULS_Work/DigitalCollections/Pitt/ULS_AudioVisual/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbolam/Documents/GitHub/MAD_Islandora_Metadata/islandora_metadata/metadata_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{B199FA4E-4360-064B-B110-5401D82B1459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA02EA76-234B-0948-A60C-E48E0E793E40}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43BBB83-E2B9-534B-96E2-4265D68429D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="580" windowWidth="24980" windowHeight="11620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25440" yWindow="-5720" windowWidth="24980" windowHeight="11620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>interviewer</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>filename</t>
+  </si>
+  <si>
+    <t>source_citation</t>
+  </si>
+  <si>
+    <t>batch</t>
   </si>
 </sst>
 </file>
@@ -589,12 +595,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AEC105"/>
+  <dimension ref="A1:AED105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="AA2" sqref="AA2"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,46 +614,47 @@
     <col min="9" max="9" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="44.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="809" width="9" style="1"/>
-    <col min="810" max="16384" width="9" style="7"/>
+    <col min="12" max="12" width="44.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="810" width="9" style="1"/>
+    <col min="811" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>23</v>
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>25</v>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>7</v>
@@ -659,883 +666,889 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="O2" s="4"/>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="9"/>
-      <c r="W2" s="4"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="O3" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="9"/>
+      <c r="X2" s="4"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="9"/>
-      <c r="W3" s="4"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="O4" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="9"/>
+      <c r="X3" s="4"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="9"/>
-      <c r="W4" s="4"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="O5" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="9"/>
+      <c r="X4" s="4"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="9"/>
-      <c r="W5" s="4"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="O6" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="9"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="9"/>
-      <c r="W6" s="4"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="O7" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="9"/>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="9"/>
-      <c r="W7" s="4"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="O8" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="9"/>
+      <c r="X7" s="4"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="9"/>
-      <c r="W8" s="4"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="O9" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="9"/>
+      <c r="X8" s="4"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="9"/>
-      <c r="W9" s="4"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="O10" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="9"/>
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="9"/>
-      <c r="W10" s="4"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="O11" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="9"/>
+      <c r="X10" s="4"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="9"/>
-      <c r="W11" s="4"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="O12" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="9"/>
+      <c r="X11" s="4"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="9"/>
-      <c r="W12" s="4"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="O13" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="9"/>
+      <c r="X12" s="4"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="9"/>
-      <c r="W13" s="4"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="O14" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="9"/>
+      <c r="X13" s="4"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="9"/>
-      <c r="W14" s="4"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="O15" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="9"/>
+      <c r="X14" s="4"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="9"/>
-      <c r="W15" s="4"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="O16" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="9"/>
+      <c r="X15" s="4"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="9"/>
-      <c r="W16" s="4"/>
-    </row>
-    <row r="17" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O17" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="9"/>
+      <c r="X16" s="4"/>
+    </row>
+    <row r="17" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="9"/>
-      <c r="W17" s="4"/>
-    </row>
-    <row r="18" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O18" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="9"/>
+      <c r="X17" s="4"/>
+    </row>
+    <row r="18" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="9"/>
-      <c r="W18" s="4"/>
-    </row>
-    <row r="19" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O19" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="9"/>
+      <c r="X18" s="4"/>
+    </row>
+    <row r="19" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="9"/>
-      <c r="W19" s="4"/>
-    </row>
-    <row r="20" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O20" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="9"/>
+      <c r="X19" s="4"/>
+    </row>
+    <row r="20" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="9"/>
-      <c r="W20" s="4"/>
-    </row>
-    <row r="21" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O21" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="9"/>
+      <c r="X20" s="4"/>
+    </row>
+    <row r="21" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
-      <c r="S21" s="9"/>
-      <c r="W21" s="4"/>
-    </row>
-    <row r="22" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O22" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="9"/>
+      <c r="X21" s="4"/>
+    </row>
+    <row r="22" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="9"/>
-      <c r="W22" s="4"/>
-    </row>
-    <row r="23" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O23" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="9"/>
+      <c r="X22" s="4"/>
+    </row>
+    <row r="23" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-      <c r="S23" s="9"/>
-      <c r="W23" s="4"/>
-    </row>
-    <row r="24" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O24" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="9"/>
+      <c r="X23" s="4"/>
+    </row>
+    <row r="24" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="9"/>
-      <c r="W24" s="4"/>
-    </row>
-    <row r="25" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O25" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="9"/>
+      <c r="X24" s="4"/>
+    </row>
+    <row r="25" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="9"/>
-      <c r="W25" s="4"/>
-    </row>
-    <row r="26" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O26" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="9"/>
+      <c r="X25" s="4"/>
+    </row>
+    <row r="26" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="9"/>
-      <c r="W26" s="4"/>
-    </row>
-    <row r="27" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O27" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="9"/>
+      <c r="X26" s="4"/>
+    </row>
+    <row r="27" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="9"/>
-      <c r="W27" s="4"/>
-    </row>
-    <row r="28" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O28" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="9"/>
+      <c r="X27" s="4"/>
+    </row>
+    <row r="28" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="9"/>
-      <c r="W28" s="4"/>
-    </row>
-    <row r="29" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O29" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="9"/>
+      <c r="X28" s="4"/>
+    </row>
+    <row r="29" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="9"/>
-      <c r="W29" s="4"/>
-    </row>
-    <row r="30" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O30" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="9"/>
+      <c r="X29" s="4"/>
+    </row>
+    <row r="30" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="9"/>
-      <c r="W30" s="4"/>
-    </row>
-    <row r="31" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O31" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="9"/>
+      <c r="X30" s="4"/>
+    </row>
+    <row r="31" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="9"/>
-      <c r="W31" s="4"/>
-    </row>
-    <row r="32" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O32" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="9"/>
+      <c r="X31" s="4"/>
+    </row>
+    <row r="32" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="9"/>
-      <c r="W32" s="4"/>
-    </row>
-    <row r="33" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O33" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="9"/>
+      <c r="X32" s="4"/>
+    </row>
+    <row r="33" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="9"/>
-      <c r="W33" s="4"/>
-    </row>
-    <row r="34" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O34" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="9"/>
+      <c r="X33" s="4"/>
+    </row>
+    <row r="34" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="9"/>
-      <c r="W34" s="4"/>
-    </row>
-    <row r="35" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O35" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="9"/>
+      <c r="X34" s="4"/>
+    </row>
+    <row r="35" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
-      <c r="S35" s="9"/>
-      <c r="W35" s="4"/>
-    </row>
-    <row r="36" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O36" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="9"/>
+      <c r="X35" s="4"/>
+    </row>
+    <row r="36" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
-      <c r="S36" s="9"/>
-      <c r="W36" s="4"/>
-    </row>
-    <row r="37" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O37" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="9"/>
+      <c r="X36" s="4"/>
+    </row>
+    <row r="37" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="9"/>
-      <c r="W37" s="4"/>
-    </row>
-    <row r="38" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O38" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="9"/>
+      <c r="X37" s="4"/>
+    </row>
+    <row r="38" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
-      <c r="S38" s="9"/>
-      <c r="W38" s="4"/>
-    </row>
-    <row r="39" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O39" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="9"/>
+      <c r="X38" s="4"/>
+    </row>
+    <row r="39" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
-      <c r="S39" s="9"/>
-      <c r="W39" s="4"/>
-    </row>
-    <row r="40" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O40" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="9"/>
+      <c r="X39" s="4"/>
+    </row>
+    <row r="40" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
-      <c r="S40" s="9"/>
-      <c r="W40" s="4"/>
-    </row>
-    <row r="41" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O41" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="9"/>
+      <c r="X40" s="4"/>
+    </row>
+    <row r="41" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
-      <c r="S41" s="9"/>
-      <c r="W41" s="4"/>
-    </row>
-    <row r="42" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O42" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="9"/>
+      <c r="X41" s="4"/>
+    </row>
+    <row r="42" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
-      <c r="S42" s="9"/>
-      <c r="W42" s="4"/>
-    </row>
-    <row r="43" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O43" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="9"/>
+      <c r="X42" s="4"/>
+    </row>
+    <row r="43" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
-      <c r="S43" s="9"/>
-      <c r="W43" s="4"/>
-    </row>
-    <row r="44" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O44" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="9"/>
+      <c r="X43" s="4"/>
+    </row>
+    <row r="44" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
-      <c r="S44" s="9"/>
-      <c r="W44" s="4"/>
-    </row>
-    <row r="45" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O45" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="9"/>
+      <c r="X44" s="4"/>
+    </row>
+    <row r="45" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
-      <c r="S45" s="9"/>
-      <c r="W45" s="4"/>
-    </row>
-    <row r="46" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O46" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="9"/>
+      <c r="X45" s="4"/>
+    </row>
+    <row r="46" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
-      <c r="S46" s="9"/>
-      <c r="W46" s="4"/>
-    </row>
-    <row r="47" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O47" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="9"/>
+      <c r="X46" s="4"/>
+    </row>
+    <row r="47" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
-      <c r="S47" s="9"/>
-      <c r="W47" s="4"/>
-    </row>
-    <row r="48" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O48" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="9"/>
+      <c r="X47" s="4"/>
+    </row>
+    <row r="48" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
-      <c r="S48" s="9"/>
-      <c r="W48" s="4"/>
-    </row>
-    <row r="49" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O49" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="9"/>
+      <c r="X48" s="4"/>
+    </row>
+    <row r="49" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
-      <c r="S49" s="9"/>
-      <c r="W49" s="4"/>
-    </row>
-    <row r="50" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O50" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="9"/>
+      <c r="X49" s="4"/>
+    </row>
+    <row r="50" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
-      <c r="S50" s="9"/>
-      <c r="W50" s="4"/>
-    </row>
-    <row r="51" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O51" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="9"/>
+      <c r="X50" s="4"/>
+    </row>
+    <row r="51" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
-      <c r="S51" s="9"/>
-      <c r="W51" s="4"/>
-    </row>
-    <row r="52" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O52" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="9"/>
+      <c r="X51" s="4"/>
+    </row>
+    <row r="52" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
-      <c r="S52" s="9"/>
-      <c r="W52" s="4"/>
-    </row>
-    <row r="53" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O53" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="9"/>
+      <c r="X52" s="4"/>
+    </row>
+    <row r="53" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
-      <c r="S53" s="9"/>
-      <c r="W53" s="4"/>
-    </row>
-    <row r="54" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O54" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="9"/>
+      <c r="X53" s="4"/>
+    </row>
+    <row r="54" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
-      <c r="S54" s="9"/>
-      <c r="W54" s="4"/>
-    </row>
-    <row r="55" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O55" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="9"/>
+      <c r="X54" s="4"/>
+    </row>
+    <row r="55" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
-      <c r="S55" s="9"/>
-      <c r="W55" s="4"/>
-    </row>
-    <row r="56" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O56" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="9"/>
+      <c r="X55" s="4"/>
+    </row>
+    <row r="56" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
-      <c r="S56" s="9"/>
-      <c r="W56" s="4"/>
-    </row>
-    <row r="57" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O57" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="9"/>
+      <c r="X56" s="4"/>
+    </row>
+    <row r="57" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
-      <c r="S57" s="9"/>
-      <c r="W57" s="4"/>
-    </row>
-    <row r="58" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O58" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="9"/>
+      <c r="X57" s="4"/>
+    </row>
+    <row r="58" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
-      <c r="S58" s="9"/>
-      <c r="W58" s="4"/>
-    </row>
-    <row r="59" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O59" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="9"/>
+      <c r="X58" s="4"/>
+    </row>
+    <row r="59" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
-      <c r="S59" s="9"/>
-      <c r="W59" s="4"/>
-    </row>
-    <row r="60" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O60" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="9"/>
+      <c r="X59" s="4"/>
+    </row>
+    <row r="60" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
-      <c r="S60" s="9"/>
-      <c r="W60" s="4"/>
-    </row>
-    <row r="61" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O61" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="9"/>
+      <c r="X60" s="4"/>
+    </row>
+    <row r="61" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
-      <c r="S61" s="9"/>
-      <c r="W61" s="4"/>
-    </row>
-    <row r="62" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O62" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="9"/>
+      <c r="X61" s="4"/>
+    </row>
+    <row r="62" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
-      <c r="S62" s="9"/>
-      <c r="W62" s="4"/>
-    </row>
-    <row r="63" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O63" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="9"/>
+      <c r="X62" s="4"/>
+    </row>
+    <row r="63" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
-      <c r="S63" s="9"/>
-      <c r="W63" s="4"/>
-    </row>
-    <row r="64" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O64" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="9"/>
+      <c r="X63" s="4"/>
+    </row>
+    <row r="64" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
-      <c r="S64" s="9"/>
-      <c r="W64" s="4"/>
-    </row>
-    <row r="65" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O65" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="9"/>
+      <c r="X64" s="4"/>
+    </row>
+    <row r="65" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
-      <c r="S65" s="9"/>
-      <c r="W65" s="4"/>
-    </row>
-    <row r="66" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O66" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="9"/>
+      <c r="X65" s="4"/>
+    </row>
+    <row r="66" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
-      <c r="S66" s="9"/>
-      <c r="W66" s="4"/>
-    </row>
-    <row r="67" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O67" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="9"/>
+      <c r="X66" s="4"/>
+    </row>
+    <row r="67" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
-      <c r="S67" s="9"/>
-      <c r="W67" s="4"/>
-    </row>
-    <row r="68" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O68" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="9"/>
+      <c r="X67" s="4"/>
+    </row>
+    <row r="68" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
-      <c r="S68" s="9"/>
-      <c r="W68" s="4"/>
-    </row>
-    <row r="69" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O69" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="9"/>
+      <c r="X68" s="4"/>
+    </row>
+    <row r="69" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
-      <c r="S69" s="9"/>
-      <c r="W69" s="4"/>
-    </row>
-    <row r="70" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O70" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="9"/>
+      <c r="X69" s="4"/>
+    </row>
+    <row r="70" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
-      <c r="S70" s="9"/>
-      <c r="W70" s="4"/>
-    </row>
-    <row r="71" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O71" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="9"/>
+      <c r="X70" s="4"/>
+    </row>
+    <row r="71" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
-      <c r="S71" s="9"/>
-      <c r="W71" s="4"/>
-    </row>
-    <row r="72" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O72" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="9"/>
+      <c r="X71" s="4"/>
+    </row>
+    <row r="72" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
-      <c r="S72" s="9"/>
-      <c r="W72" s="4"/>
-    </row>
-    <row r="73" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O73" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="9"/>
+      <c r="X72" s="4"/>
+    </row>
+    <row r="73" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
-      <c r="S73" s="9"/>
-      <c r="W73" s="4"/>
-    </row>
-    <row r="74" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O74" s="4"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="9"/>
+      <c r="X73" s="4"/>
+    </row>
+    <row r="74" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
-      <c r="S74" s="9"/>
-      <c r="W74" s="4"/>
-    </row>
-    <row r="75" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O75" s="4"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="9"/>
+      <c r="X74" s="4"/>
+    </row>
+    <row r="75" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
-      <c r="S75" s="9"/>
-      <c r="W75" s="4"/>
-    </row>
-    <row r="76" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O76" s="4"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="9"/>
+      <c r="X75" s="4"/>
+    </row>
+    <row r="76" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
-      <c r="S76" s="9"/>
-      <c r="W76" s="4"/>
-    </row>
-    <row r="77" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O77" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="9"/>
+      <c r="X76" s="4"/>
+    </row>
+    <row r="77" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
-      <c r="S77" s="9"/>
-      <c r="W77" s="4"/>
-    </row>
-    <row r="78" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O78" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="9"/>
+      <c r="X77" s="4"/>
+    </row>
+    <row r="78" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
-      <c r="S78" s="9"/>
-      <c r="W78" s="4"/>
-    </row>
-    <row r="79" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O79" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="9"/>
+      <c r="X78" s="4"/>
+    </row>
+    <row r="79" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
-      <c r="S79" s="9"/>
-      <c r="W79" s="4"/>
-    </row>
-    <row r="80" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O80" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="9"/>
+      <c r="X79" s="4"/>
+    </row>
+    <row r="80" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
-      <c r="S80" s="9"/>
-      <c r="W80" s="4"/>
-    </row>
-    <row r="81" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O81" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="9"/>
+      <c r="X80" s="4"/>
+    </row>
+    <row r="81" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P81" s="4"/>
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
-      <c r="S81" s="9"/>
-      <c r="W81" s="4"/>
-    </row>
-    <row r="82" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O82" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="9"/>
+      <c r="X81" s="4"/>
+    </row>
+    <row r="82" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
-      <c r="S82" s="9"/>
-      <c r="W82" s="4"/>
-    </row>
-    <row r="83" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O83" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="9"/>
+      <c r="X82" s="4"/>
+    </row>
+    <row r="83" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
-      <c r="S83" s="9"/>
-      <c r="W83" s="4"/>
-    </row>
-    <row r="84" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O84" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="9"/>
+      <c r="X83" s="4"/>
+    </row>
+    <row r="84" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
-      <c r="S84" s="9"/>
-      <c r="W84" s="4"/>
-    </row>
-    <row r="85" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O85" s="4"/>
+      <c r="S84" s="4"/>
+      <c r="T84" s="9"/>
+      <c r="X84" s="4"/>
+    </row>
+    <row r="85" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P85" s="4"/>
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
-      <c r="S85" s="9"/>
-      <c r="W85" s="4"/>
-    </row>
-    <row r="86" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O86" s="4"/>
+      <c r="S85" s="4"/>
+      <c r="T85" s="9"/>
+      <c r="X85" s="4"/>
+    </row>
+    <row r="86" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P86" s="4"/>
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
-      <c r="S86" s="9"/>
-      <c r="W86" s="4"/>
-    </row>
-    <row r="87" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O87" s="4"/>
+      <c r="S86" s="4"/>
+      <c r="T86" s="9"/>
+      <c r="X86" s="4"/>
+    </row>
+    <row r="87" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P87" s="4"/>
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
-      <c r="S87" s="9"/>
-      <c r="W87" s="4"/>
-    </row>
-    <row r="88" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O88" s="4"/>
+      <c r="S87" s="4"/>
+      <c r="T87" s="9"/>
+      <c r="X87" s="4"/>
+    </row>
+    <row r="88" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P88" s="4"/>
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
-      <c r="S88" s="9"/>
-      <c r="W88" s="4"/>
-    </row>
-    <row r="89" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O89" s="4"/>
+      <c r="S88" s="4"/>
+      <c r="T88" s="9"/>
+      <c r="X88" s="4"/>
+    </row>
+    <row r="89" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P89" s="4"/>
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
-      <c r="S89" s="9"/>
-      <c r="W89" s="4"/>
-    </row>
-    <row r="90" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O90" s="4"/>
+      <c r="S89" s="4"/>
+      <c r="T89" s="9"/>
+      <c r="X89" s="4"/>
+    </row>
+    <row r="90" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
-      <c r="S90" s="9"/>
-      <c r="W90" s="4"/>
-    </row>
-    <row r="91" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O91" s="4"/>
+      <c r="S90" s="4"/>
+      <c r="T90" s="9"/>
+      <c r="X90" s="4"/>
+    </row>
+    <row r="91" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P91" s="4"/>
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
-      <c r="S91" s="9"/>
-      <c r="W91" s="4"/>
-    </row>
-    <row r="92" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O92" s="4"/>
+      <c r="S91" s="4"/>
+      <c r="T91" s="9"/>
+      <c r="X91" s="4"/>
+    </row>
+    <row r="92" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P92" s="4"/>
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
-      <c r="S92" s="9"/>
-      <c r="W92" s="4"/>
-    </row>
-    <row r="93" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O93" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="9"/>
+      <c r="X92" s="4"/>
+    </row>
+    <row r="93" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P93" s="4"/>
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
-      <c r="S93" s="9"/>
-      <c r="W93" s="4"/>
-    </row>
-    <row r="94" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O94" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="9"/>
+      <c r="X93" s="4"/>
+    </row>
+    <row r="94" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P94" s="4"/>
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
-      <c r="S94" s="9"/>
-      <c r="W94" s="4"/>
-    </row>
-    <row r="95" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O95" s="4"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="9"/>
+      <c r="X94" s="4"/>
+    </row>
+    <row r="95" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P95" s="4"/>
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
-      <c r="S95" s="9"/>
-      <c r="W95" s="4"/>
-    </row>
-    <row r="96" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O96" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="9"/>
+      <c r="X95" s="4"/>
+    </row>
+    <row r="96" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P96" s="4"/>
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
-      <c r="S96" s="9"/>
-      <c r="W96" s="4"/>
-    </row>
-    <row r="97" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O97" s="4"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="9"/>
+      <c r="X96" s="4"/>
+    </row>
+    <row r="97" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P97" s="4"/>
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
-      <c r="S97" s="9"/>
-      <c r="W97" s="4"/>
-    </row>
-    <row r="98" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O98" s="4"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="9"/>
+      <c r="X97" s="4"/>
+    </row>
+    <row r="98" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P98" s="4"/>
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
-      <c r="S98" s="9"/>
-      <c r="W98" s="4"/>
-    </row>
-    <row r="99" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O99" s="4"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="9"/>
+      <c r="X98" s="4"/>
+    </row>
+    <row r="99" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P99" s="4"/>
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
-      <c r="S99" s="9"/>
-      <c r="W99" s="4"/>
-    </row>
-    <row r="100" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O100" s="4"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="9"/>
+      <c r="X99" s="4"/>
+    </row>
+    <row r="100" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P100" s="4"/>
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
-      <c r="S100" s="9"/>
-      <c r="W100" s="4"/>
-    </row>
-    <row r="101" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O101" s="4"/>
+      <c r="S100" s="4"/>
+      <c r="T100" s="9"/>
+      <c r="X100" s="4"/>
+    </row>
+    <row r="101" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P101" s="4"/>
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
-      <c r="S101" s="9"/>
-      <c r="W101" s="4"/>
-    </row>
-    <row r="102" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O102" s="4"/>
+      <c r="S101" s="4"/>
+      <c r="T101" s="9"/>
+      <c r="X101" s="4"/>
+    </row>
+    <row r="102" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P102" s="4"/>
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
-      <c r="S102" s="9"/>
-      <c r="W102" s="4"/>
-    </row>
-    <row r="103" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O103" s="4"/>
+      <c r="S102" s="4"/>
+      <c r="T102" s="9"/>
+      <c r="X102" s="4"/>
+    </row>
+    <row r="103" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P103" s="4"/>
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
-      <c r="S103" s="9"/>
-      <c r="W103" s="4"/>
-    </row>
-    <row r="104" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="O104" s="4"/>
+      <c r="S103" s="4"/>
+      <c r="T103" s="9"/>
+      <c r="X103" s="4"/>
+    </row>
+    <row r="104" spans="16:24" x14ac:dyDescent="0.2">
       <c r="P104" s="4"/>
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
-      <c r="S104" s="9"/>
-      <c r="W104" s="4"/>
-    </row>
-    <row r="105" spans="15:23" x14ac:dyDescent="0.2">
-      <c r="W105" s="4"/>
+      <c r="S104" s="4"/>
+      <c r="T104" s="9"/>
+      <c r="X104" s="4"/>
+    </row>
+    <row r="105" spans="16:24" x14ac:dyDescent="0.2">
+      <c r="X105" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/metadata_templates/HP_OralHistory_Simple_metadata_template.xlsx
+++ b/metadata_templates/HP_OralHistory_Simple_metadata_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbolam/Documents/GitHub/MAD_Islandora_Metadata/islandora_metadata/metadata_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43BBB83-E2B9-534B-96E2-4265D68429D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DBEDF2-55E4-384B-924F-D3C17B525EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25440" yWindow="-5720" windowWidth="24980" windowHeight="11620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="-5720" windowWidth="24980" windowHeight="11620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>genre</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>identifier</t>
   </si>
   <si>
@@ -112,13 +109,16 @@
   </si>
   <si>
     <t>batch</t>
+  </si>
+  <si>
+    <t>type_of_resource</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -143,6 +143,12 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -183,7 +189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -212,6 +218,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,10 +604,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AED105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -636,7 +643,7 @@
   <sheetData>
     <row r="1" spans="1:29" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -648,79 +655,79 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="U1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">

--- a/metadata_templates/HP_OralHistory_Simple_metadata_template.xlsx
+++ b/metadata_templates/HP_OralHistory_Simple_metadata_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbolam/Documents/GitHub/MAD_Islandora_Metadata/islandora_metadata/metadata_templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/mrbst20_pitt_edu/Documents/Documents/GitHub/islandora_metadata/metadata_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DBEDF2-55E4-384B-924F-D3C17B525EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{17DBEDF2-55E4-384B-924F-D3C17B525EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D27BA2CF-9CAC-497D-9379-B9089AEA968B}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-5720" windowWidth="24980" windowHeight="11620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4575" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object" sheetId="1" r:id="rId1"/>
@@ -72,12 +72,6 @@
     <t>pub_place</t>
   </si>
   <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>subject_location</t>
-  </si>
-  <si>
     <t>language</t>
   </si>
   <si>
@@ -112,6 +106,12 @@
   </si>
   <si>
     <t>type_of_resource</t>
+  </si>
+  <si>
+    <t>subject_topic</t>
+  </si>
+  <si>
+    <t>subject_geographic</t>
   </si>
 </sst>
 </file>
@@ -604,44 +604,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AED105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="35.83203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="45.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.36328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="35.81640625" style="8" customWidth="1"/>
     <col min="9" max="9" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.1640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.1796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.81640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="810" width="9" style="1"/>
     <col min="811" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -655,13 +655,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>6</v>
@@ -676,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>10</v>
@@ -688,7 +688,7 @@
         <v>11</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>9</v>
@@ -700,37 +700,37 @@
         <v>14</v>
       </c>
       <c r="T1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -738,7 +738,7 @@
       <c r="T2" s="9"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -746,7 +746,7 @@
       <c r="T3" s="9"/>
       <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -754,7 +754,7 @@
       <c r="T4" s="9"/>
       <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -762,7 +762,7 @@
       <c r="T5" s="9"/>
       <c r="X5" s="4"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -770,7 +770,7 @@
       <c r="T6" s="9"/>
       <c r="X6" s="4"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -778,7 +778,7 @@
       <c r="T7" s="9"/>
       <c r="X7" s="4"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -786,7 +786,7 @@
       <c r="T8" s="9"/>
       <c r="X8" s="4"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -794,7 +794,7 @@
       <c r="T9" s="9"/>
       <c r="X9" s="4"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -802,7 +802,7 @@
       <c r="T10" s="9"/>
       <c r="X10" s="4"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -810,7 +810,7 @@
       <c r="T11" s="9"/>
       <c r="X11" s="4"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -818,7 +818,7 @@
       <c r="T12" s="9"/>
       <c r="X12" s="4"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -826,7 +826,7 @@
       <c r="T13" s="9"/>
       <c r="X13" s="4"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -834,7 +834,7 @@
       <c r="T14" s="9"/>
       <c r="X14" s="4"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -842,7 +842,7 @@
       <c r="T15" s="9"/>
       <c r="X15" s="4"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -850,7 +850,7 @@
       <c r="T16" s="9"/>
       <c r="X16" s="4"/>
     </row>
-    <row r="17" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -858,7 +858,7 @@
       <c r="T17" s="9"/>
       <c r="X17" s="4"/>
     </row>
-    <row r="18" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -866,7 +866,7 @@
       <c r="T18" s="9"/>
       <c r="X18" s="4"/>
     </row>
-    <row r="19" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -874,7 +874,7 @@
       <c r="T19" s="9"/>
       <c r="X19" s="4"/>
     </row>
-    <row r="20" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -882,7 +882,7 @@
       <c r="T20" s="9"/>
       <c r="X20" s="4"/>
     </row>
-    <row r="21" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -890,7 +890,7 @@
       <c r="T21" s="9"/>
       <c r="X21" s="4"/>
     </row>
-    <row r="22" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -898,7 +898,7 @@
       <c r="T22" s="9"/>
       <c r="X22" s="4"/>
     </row>
-    <row r="23" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -906,7 +906,7 @@
       <c r="T23" s="9"/>
       <c r="X23" s="4"/>
     </row>
-    <row r="24" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -914,7 +914,7 @@
       <c r="T24" s="9"/>
       <c r="X24" s="4"/>
     </row>
-    <row r="25" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
@@ -922,7 +922,7 @@
       <c r="T25" s="9"/>
       <c r="X25" s="4"/>
     </row>
-    <row r="26" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
@@ -930,7 +930,7 @@
       <c r="T26" s="9"/>
       <c r="X26" s="4"/>
     </row>
-    <row r="27" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
@@ -938,7 +938,7 @@
       <c r="T27" s="9"/>
       <c r="X27" s="4"/>
     </row>
-    <row r="28" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
@@ -946,7 +946,7 @@
       <c r="T28" s="9"/>
       <c r="X28" s="4"/>
     </row>
-    <row r="29" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
@@ -954,7 +954,7 @@
       <c r="T29" s="9"/>
       <c r="X29" s="4"/>
     </row>
-    <row r="30" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
@@ -962,7 +962,7 @@
       <c r="T30" s="9"/>
       <c r="X30" s="4"/>
     </row>
-    <row r="31" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
@@ -970,7 +970,7 @@
       <c r="T31" s="9"/>
       <c r="X31" s="4"/>
     </row>
-    <row r="32" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
@@ -978,7 +978,7 @@
       <c r="T32" s="9"/>
       <c r="X32" s="4"/>
     </row>
-    <row r="33" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
@@ -986,7 +986,7 @@
       <c r="T33" s="9"/>
       <c r="X33" s="4"/>
     </row>
-    <row r="34" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
@@ -994,7 +994,7 @@
       <c r="T34" s="9"/>
       <c r="X34" s="4"/>
     </row>
-    <row r="35" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
@@ -1002,7 +1002,7 @@
       <c r="T35" s="9"/>
       <c r="X35" s="4"/>
     </row>
-    <row r="36" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
@@ -1010,7 +1010,7 @@
       <c r="T36" s="9"/>
       <c r="X36" s="4"/>
     </row>
-    <row r="37" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
@@ -1018,7 +1018,7 @@
       <c r="T37" s="9"/>
       <c r="X37" s="4"/>
     </row>
-    <row r="38" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
@@ -1026,7 +1026,7 @@
       <c r="T38" s="9"/>
       <c r="X38" s="4"/>
     </row>
-    <row r="39" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
@@ -1034,7 +1034,7 @@
       <c r="T39" s="9"/>
       <c r="X39" s="4"/>
     </row>
-    <row r="40" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
@@ -1042,7 +1042,7 @@
       <c r="T40" s="9"/>
       <c r="X40" s="4"/>
     </row>
-    <row r="41" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
@@ -1050,7 +1050,7 @@
       <c r="T41" s="9"/>
       <c r="X41" s="4"/>
     </row>
-    <row r="42" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
@@ -1058,7 +1058,7 @@
       <c r="T42" s="9"/>
       <c r="X42" s="4"/>
     </row>
-    <row r="43" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
@@ -1066,7 +1066,7 @@
       <c r="T43" s="9"/>
       <c r="X43" s="4"/>
     </row>
-    <row r="44" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
@@ -1074,7 +1074,7 @@
       <c r="T44" s="9"/>
       <c r="X44" s="4"/>
     </row>
-    <row r="45" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
@@ -1082,7 +1082,7 @@
       <c r="T45" s="9"/>
       <c r="X45" s="4"/>
     </row>
-    <row r="46" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
@@ -1090,7 +1090,7 @@
       <c r="T46" s="9"/>
       <c r="X46" s="4"/>
     </row>
-    <row r="47" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
@@ -1098,7 +1098,7 @@
       <c r="T47" s="9"/>
       <c r="X47" s="4"/>
     </row>
-    <row r="48" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
@@ -1106,7 +1106,7 @@
       <c r="T48" s="9"/>
       <c r="X48" s="4"/>
     </row>
-    <row r="49" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
@@ -1114,7 +1114,7 @@
       <c r="T49" s="9"/>
       <c r="X49" s="4"/>
     </row>
-    <row r="50" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
@@ -1122,7 +1122,7 @@
       <c r="T50" s="9"/>
       <c r="X50" s="4"/>
     </row>
-    <row r="51" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
@@ -1130,7 +1130,7 @@
       <c r="T51" s="9"/>
       <c r="X51" s="4"/>
     </row>
-    <row r="52" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
@@ -1138,7 +1138,7 @@
       <c r="T52" s="9"/>
       <c r="X52" s="4"/>
     </row>
-    <row r="53" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
@@ -1146,7 +1146,7 @@
       <c r="T53" s="9"/>
       <c r="X53" s="4"/>
     </row>
-    <row r="54" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
@@ -1154,7 +1154,7 @@
       <c r="T54" s="9"/>
       <c r="X54" s="4"/>
     </row>
-    <row r="55" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
@@ -1162,7 +1162,7 @@
       <c r="T55" s="9"/>
       <c r="X55" s="4"/>
     </row>
-    <row r="56" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
@@ -1170,7 +1170,7 @@
       <c r="T56" s="9"/>
       <c r="X56" s="4"/>
     </row>
-    <row r="57" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
@@ -1178,7 +1178,7 @@
       <c r="T57" s="9"/>
       <c r="X57" s="4"/>
     </row>
-    <row r="58" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
@@ -1186,7 +1186,7 @@
       <c r="T58" s="9"/>
       <c r="X58" s="4"/>
     </row>
-    <row r="59" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
@@ -1194,7 +1194,7 @@
       <c r="T59" s="9"/>
       <c r="X59" s="4"/>
     </row>
-    <row r="60" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
@@ -1202,7 +1202,7 @@
       <c r="T60" s="9"/>
       <c r="X60" s="4"/>
     </row>
-    <row r="61" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
@@ -1210,7 +1210,7 @@
       <c r="T61" s="9"/>
       <c r="X61" s="4"/>
     </row>
-    <row r="62" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
@@ -1218,7 +1218,7 @@
       <c r="T62" s="9"/>
       <c r="X62" s="4"/>
     </row>
-    <row r="63" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
@@ -1226,7 +1226,7 @@
       <c r="T63" s="9"/>
       <c r="X63" s="4"/>
     </row>
-    <row r="64" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
@@ -1234,7 +1234,7 @@
       <c r="T64" s="9"/>
       <c r="X64" s="4"/>
     </row>
-    <row r="65" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
@@ -1242,7 +1242,7 @@
       <c r="T65" s="9"/>
       <c r="X65" s="4"/>
     </row>
-    <row r="66" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
@@ -1250,7 +1250,7 @@
       <c r="T66" s="9"/>
       <c r="X66" s="4"/>
     </row>
-    <row r="67" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
@@ -1258,7 +1258,7 @@
       <c r="T67" s="9"/>
       <c r="X67" s="4"/>
     </row>
-    <row r="68" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
@@ -1266,7 +1266,7 @@
       <c r="T68" s="9"/>
       <c r="X68" s="4"/>
     </row>
-    <row r="69" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
@@ -1274,7 +1274,7 @@
       <c r="T69" s="9"/>
       <c r="X69" s="4"/>
     </row>
-    <row r="70" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
@@ -1282,7 +1282,7 @@
       <c r="T70" s="9"/>
       <c r="X70" s="4"/>
     </row>
-    <row r="71" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
@@ -1290,7 +1290,7 @@
       <c r="T71" s="9"/>
       <c r="X71" s="4"/>
     </row>
-    <row r="72" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
@@ -1298,7 +1298,7 @@
       <c r="T72" s="9"/>
       <c r="X72" s="4"/>
     </row>
-    <row r="73" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
@@ -1306,7 +1306,7 @@
       <c r="T73" s="9"/>
       <c r="X73" s="4"/>
     </row>
-    <row r="74" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
@@ -1314,7 +1314,7 @@
       <c r="T74" s="9"/>
       <c r="X74" s="4"/>
     </row>
-    <row r="75" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
@@ -1322,7 +1322,7 @@
       <c r="T75" s="9"/>
       <c r="X75" s="4"/>
     </row>
-    <row r="76" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
@@ -1330,7 +1330,7 @@
       <c r="T76" s="9"/>
       <c r="X76" s="4"/>
     </row>
-    <row r="77" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
@@ -1338,7 +1338,7 @@
       <c r="T77" s="9"/>
       <c r="X77" s="4"/>
     </row>
-    <row r="78" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
@@ -1346,7 +1346,7 @@
       <c r="T78" s="9"/>
       <c r="X78" s="4"/>
     </row>
-    <row r="79" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
@@ -1354,7 +1354,7 @@
       <c r="T79" s="9"/>
       <c r="X79" s="4"/>
     </row>
-    <row r="80" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
@@ -1362,7 +1362,7 @@
       <c r="T80" s="9"/>
       <c r="X80" s="4"/>
     </row>
-    <row r="81" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P81" s="4"/>
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
@@ -1370,7 +1370,7 @@
       <c r="T81" s="9"/>
       <c r="X81" s="4"/>
     </row>
-    <row r="82" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
@@ -1378,7 +1378,7 @@
       <c r="T82" s="9"/>
       <c r="X82" s="4"/>
     </row>
-    <row r="83" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
@@ -1386,7 +1386,7 @@
       <c r="T83" s="9"/>
       <c r="X83" s="4"/>
     </row>
-    <row r="84" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
@@ -1394,7 +1394,7 @@
       <c r="T84" s="9"/>
       <c r="X84" s="4"/>
     </row>
-    <row r="85" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P85" s="4"/>
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
@@ -1402,7 +1402,7 @@
       <c r="T85" s="9"/>
       <c r="X85" s="4"/>
     </row>
-    <row r="86" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P86" s="4"/>
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
@@ -1410,7 +1410,7 @@
       <c r="T86" s="9"/>
       <c r="X86" s="4"/>
     </row>
-    <row r="87" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P87" s="4"/>
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
@@ -1418,7 +1418,7 @@
       <c r="T87" s="9"/>
       <c r="X87" s="4"/>
     </row>
-    <row r="88" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P88" s="4"/>
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
@@ -1426,7 +1426,7 @@
       <c r="T88" s="9"/>
       <c r="X88" s="4"/>
     </row>
-    <row r="89" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P89" s="4"/>
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
@@ -1434,7 +1434,7 @@
       <c r="T89" s="9"/>
       <c r="X89" s="4"/>
     </row>
-    <row r="90" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
@@ -1442,7 +1442,7 @@
       <c r="T90" s="9"/>
       <c r="X90" s="4"/>
     </row>
-    <row r="91" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P91" s="4"/>
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
@@ -1450,7 +1450,7 @@
       <c r="T91" s="9"/>
       <c r="X91" s="4"/>
     </row>
-    <row r="92" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P92" s="4"/>
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
@@ -1458,7 +1458,7 @@
       <c r="T92" s="9"/>
       <c r="X92" s="4"/>
     </row>
-    <row r="93" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P93" s="4"/>
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
@@ -1466,7 +1466,7 @@
       <c r="T93" s="9"/>
       <c r="X93" s="4"/>
     </row>
-    <row r="94" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P94" s="4"/>
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
@@ -1474,7 +1474,7 @@
       <c r="T94" s="9"/>
       <c r="X94" s="4"/>
     </row>
-    <row r="95" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P95" s="4"/>
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
@@ -1482,7 +1482,7 @@
       <c r="T95" s="9"/>
       <c r="X95" s="4"/>
     </row>
-    <row r="96" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P96" s="4"/>
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
@@ -1490,7 +1490,7 @@
       <c r="T96" s="9"/>
       <c r="X96" s="4"/>
     </row>
-    <row r="97" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P97" s="4"/>
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
@@ -1498,7 +1498,7 @@
       <c r="T97" s="9"/>
       <c r="X97" s="4"/>
     </row>
-    <row r="98" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P98" s="4"/>
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
@@ -1506,7 +1506,7 @@
       <c r="T98" s="9"/>
       <c r="X98" s="4"/>
     </row>
-    <row r="99" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P99" s="4"/>
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
@@ -1514,7 +1514,7 @@
       <c r="T99" s="9"/>
       <c r="X99" s="4"/>
     </row>
-    <row r="100" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P100" s="4"/>
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
@@ -1522,7 +1522,7 @@
       <c r="T100" s="9"/>
       <c r="X100" s="4"/>
     </row>
-    <row r="101" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P101" s="4"/>
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
@@ -1530,7 +1530,7 @@
       <c r="T101" s="9"/>
       <c r="X101" s="4"/>
     </row>
-    <row r="102" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P102" s="4"/>
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
@@ -1538,7 +1538,7 @@
       <c r="T102" s="9"/>
       <c r="X102" s="4"/>
     </row>
-    <row r="103" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="103" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P103" s="4"/>
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
@@ -1546,7 +1546,7 @@
       <c r="T103" s="9"/>
       <c r="X103" s="4"/>
     </row>
-    <row r="104" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="104" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P104" s="4"/>
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
@@ -1554,7 +1554,7 @@
       <c r="T104" s="9"/>
       <c r="X104" s="4"/>
     </row>
-    <row r="105" spans="16:24" x14ac:dyDescent="0.2">
+    <row r="105" spans="16:24" x14ac:dyDescent="0.35">
       <c r="X105" s="4"/>
     </row>
   </sheetData>
